--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -193,51 +259,51 @@
     <col min="7" max="7" width="15.64453125" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.24609375" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.35555597499776304</v>
+        <v>0.35529062735081218</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.33332715046745881</v>
+        <v>0.33322932488502677</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0051776276007215573</v>
+        <v>-0.0051499207027774843</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00010893049590667413</v>
+        <v>-0.00011291342515275761</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00097232104004057291</v>
+        <v>-0.00093790221080953108</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0003165062928855352</v>
+        <v>0.00031773024156445454</v>
       </c>
       <c r="H3" s="0">
-        <v>-7.0445360752008338e-05</v>
+        <v>-6.9651418738962315e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00072068845620356693</v>
+        <v>-0.00072083949097101398</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0077183928159580972</v>
+        <v>0.007718400448858298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.32249623642237163</v>
+        <v>0.32150701032021306</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0019342519441111956</v>
+        <v>-0.0023018916317374179</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00048134593354500236</v>
+        <v>0.00047772729980039458</v>
       </c>
       <c r="F4" s="0">
-        <v>6.8911659688343914e-05</v>
+        <v>6.868016734961851e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00014579596910046665</v>
+        <v>0.00014557860882880879</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.002593933800036417</v>
+        <v>-0.002587529728343248</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00034264585941975339</v>
+        <v>0.00034046964700825186</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00076610333274379494</v>
+        <v>-0.00076610555806710945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.35587594791112664</v>
+        <v>0.35580467549320083</v>
       </c>
       <c r="C5" s="0">
-        <v>0.009010946149038886</v>
+        <v>0.0095099242951275625</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0074384122538839652</v>
+        <v>-0.0074568509218240261</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00010776197843912162</v>
+        <v>0.00011373266260338435</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0010010141654982468</v>
+        <v>0.00099172917728496384</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0015827110693419656</v>
+        <v>-0.0015810917159667689</v>
       </c>
       <c r="H5" s="0">
-        <v>1.9290116237042334e-05</v>
+        <v>1.889332165193007e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00070881088405954111</v>
+        <v>-0.0007083506336505287</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00027219718852744546</v>
+        <v>-0.00027220378905751241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.37464173926928107</v>
+        <v>0.37445452351912345</v>
       </c>
       <c r="C6" s="0">
-        <v>0.02765088084795906</v>
+        <v>0.027539534987914022</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00032521596171874165</v>
+        <v>-0.00032496654339583255</v>
       </c>
       <c r="F6" s="0">
-        <v>1.9362748139825537e-05</v>
+        <v>1.9779760689569702e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-6.3240767483773377e-05</v>
+        <v>-6.3907821354194466e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0022415826145011884</v>
+        <v>-0.0022597581549458979</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00018596339906401527</v>
+        <v>0.00018595980891306096</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.2969498455939974</v>
+        <v>0.29690104460190275</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0026126278435511813</v>
+        <v>-0.0026499943018211125</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00090143297316242778</v>
+        <v>-0.00089064459055649564</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0062627719784857407</v>
+        <v>-0.0062648470923306636</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0010797773001471856</v>
+        <v>0.0010815367443699887</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00024226809202395697</v>
+        <v>0.00024170046862809013</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0013590946003977367</v>
+        <v>-0.0013590867449573829</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.16623713082682134</v>
+        <v>0.16744957426771001</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.058767349024856766</v>
+        <v>-0.058417806521557675</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-4.0394731284504502e-05</v>
+        <v>-3.9245941296442858e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00036207205530801832</v>
+        <v>-0.00036194307868962273</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.126140782890204e-05</v>
+        <v>5.1309491888608729e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00087991554700345652</v>
+        <v>0.00089158522824544606</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.00035640078767928962</v>
+        <v>-0.00035642031431160071</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.19462536776463274</v>
+        <v>0.19590526220428095</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0043920040057355593</v>
+        <v>0.0044323024119971993</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0033097686743745426</v>
+        <v>-0.0033204286031518928</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0045147295442940459</v>
+        <v>-0.0045295828881494436</v>
       </c>
       <c r="G9" s="0">
-        <v>0.001345804155939071</v>
+        <v>0.0013386679293828461</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00015371451223760986</v>
+        <v>-0.00015324902492267335</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.00018684592066311754</v>
+        <v>-0.0001862869139106772</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00053234581010982995</v>
+        <v>-0.00053235815376229123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.40100375243842312</v>
+        <v>0.40061115606382292</v>
       </c>
       <c r="C10" s="0">
-        <v>0.099215328885977658</v>
+        <v>0.099226985922044306</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00036899626636147543</v>
+        <v>-0.000365166072996234</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00033114039420946412</v>
+        <v>-0.00033055372627747022</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-1.7647072426316164e-05</v>
+        <v>-1.7648798637545545e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.00035666799219062905</v>
+        <v>0.00035830173599825968</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0021988330421410826</v>
+        <v>-0.0021980118939890054</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.00041303465005487761</v>
+        <v>-0.00041305182915371552</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.37744838642714251</v>
+        <v>0.37784827511362706</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.02728870653704556</v>
+        <v>-0.027243915801356412</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0024313622784428086</v>
+        <v>0.0024337296980999992</v>
       </c>
       <c r="F11" s="0">
-        <v>0.0057990977137985103</v>
+        <v>0.005798210556820717</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0025331588624327404</v>
+        <v>0.0025414091335063771</v>
       </c>
       <c r="H11" s="0">
-        <v>0.0006508445322414313</v>
+        <v>0.00065072136068821328</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0016395557875027457</v>
+        <v>0.0016258226457821284</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0057862720789164657</v>
+        <v>0.0057862865820084153</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.16134582824200724</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.068106350395210971</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00036017348074736134</v>
+      </c>
+      <c r="F12" s="0">
+        <v>2.3928002410642268e-05</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>1.2665756102842452e-05</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0019037968420538519</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.0042211796449230787</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -256,54 +397,54 @@
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.64453125" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.35529062735081218</v>
+        <v>0.35546053261857952</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.33322932488502677</v>
+        <v>0.33313180890007021</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0051499207027774843</v>
+        <v>-0.0052144698200753022</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00011291342515275761</v>
+        <v>-0.00011103696883034524</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00093790221080953108</v>
+        <v>-0.00096329338005295259</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00031773024156445454</v>
+        <v>0.00031968812628230622</v>
       </c>
       <c r="H3" s="0">
-        <v>-6.9651418738962315e-05</v>
+        <v>-7.0382764551744917e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00072083949097101398</v>
+        <v>-0.0007232329197791583</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.007718400448858298</v>
+        <v>0.0077184022869483671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.32150701032021306</v>
+        <v>0.32263214942805019</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0023018916317374179</v>
+        <v>-0.002001447213574327</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.00047772729980039458</v>
+        <v>0.00047737870016798548</v>
       </c>
       <c r="F4" s="0">
-        <v>6.868016734961851e-05</v>
+        <v>6.6979432129554874e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00014557860882880879</v>
+        <v>0.00014405028042462119</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.002587529728343248</v>
+        <v>-0.0025741867742912726</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00034046964700825186</v>
+        <v>0.00033803153976462631</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00076610555806710945</v>
+        <v>-0.0007661518917859711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.35580467549320083</v>
+        <v>0.35460969345664362</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0095099242951275625</v>
+        <v>0.0089107328093469777</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0074568509218240261</v>
+        <v>-0.0074416973699598168</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00011373266260338435</v>
+        <v>0.0001056254052982079</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00099172917728496384</v>
+        <v>0.00096343649994662774</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0015810917159667689</v>
+        <v>-0.0015841358744716398</v>
       </c>
       <c r="H5" s="0">
-        <v>1.889332165193007e-05</v>
+        <v>1.880804887117126e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0007083506336505287</v>
+        <v>-0.0007076711215191269</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00027220378905751241</v>
+        <v>-0.00027218993989691631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.37445452351912345</v>
+        <v>0.3744211556089701</v>
       </c>
       <c r="C6" s="0">
-        <v>0.027539534987914022</v>
+        <v>0.028034317496499522</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.00032496654339583255</v>
+        <v>-0.00032522578547168455</v>
       </c>
       <c r="F6" s="0">
-        <v>1.9779760689569702e-05</v>
+        <v>2.0509259800183299e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-6.3907821354194466e-05</v>
+        <v>-6.4343870482713408e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0022597581549458979</v>
+        <v>-0.002267877747850046</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00018595980891306096</v>
+        <v>0.00018594529101356727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29690104460190275</v>
+        <v>0.29740531927449676</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0026499943018211125</v>
+        <v>-0.0026590406710635599</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00089064459055649564</v>
+        <v>-0.00087093781741278363</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0062648470923306636</v>
+        <v>-0.0062334519039189198</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0010815367443699887</v>
+        <v>0.001085074550970191</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00024170046862809013</v>
+        <v>0.00024068589094218418</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0013590867449573829</v>
+        <v>-0.0013591044899354254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.16744957426771001</v>
+        <v>0.167109175312777</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.058417806521557675</v>
+        <v>-0.059165871237796722</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-3.9245941296442858e-05</v>
+        <v>-3.852122772337271e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00036194307868962273</v>
+        <v>-0.00036192450469785058</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5.1309491888608729e-05</v>
+        <v>5.1281517691849572e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.00089158522824544606</v>
+        <v>0.00090749100801239117</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.00035642031431160071</v>
+        <v>-0.00035643465151868892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.19590526220428095</v>
+        <v>0.1950338412583682</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0044323024119971993</v>
+        <v>0.0043570292845152465</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0033204286031518928</v>
+        <v>-0.0033333030118698945</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0045295828881494436</v>
+        <v>-0.004541726359260213</v>
       </c>
       <c r="G9" s="0">
-        <v>0.0013386679293828461</v>
+        <v>0.0013507240438809522</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00015324902492267335</v>
+        <v>-0.00015278601379977493</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.0001862869139106772</v>
+        <v>-0.00018571038368987713</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.00053235815376229123</v>
+        <v>-0.00053234201518562174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.40061115606382292</v>
+        <v>0.39976793288929613</v>
       </c>
       <c r="C10" s="0">
-        <v>0.099226985922044306</v>
+        <v>0.09976023351129551</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.000365166072996234</v>
+        <v>-0.00036980674922711918</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.00033055372627747022</v>
+        <v>-0.00033552436597536982</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-1.7648798637545545e-05</v>
+        <v>-1.7779281975073323e-05</v>
       </c>
       <c r="I10" s="0">
-        <v>0.00035830173599825968</v>
+        <v>0.00036215022140559155</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0021980118939890054</v>
+        <v>-0.0021549066159478676</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.00041305182915371552</v>
+        <v>-0.00041301018811748524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.37784827511362706</v>
+        <v>0.37607753792417603</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.027243915801356412</v>
+        <v>-0.027558213755074886</v>
       </c>
       <c r="E11" s="0">
-        <v>0.0024337296980999992</v>
+        <v>0.0024373736227555499</v>
       </c>
       <c r="F11" s="0">
-        <v>0.005798210556820717</v>
+        <v>0.005665658774097985</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0025414091335063771</v>
+        <v>0.0025588369455008934</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00065072136068821328</v>
+        <v>0.00064884305458268014</v>
       </c>
       <c r="I11" s="0">
-        <v>0.0016258226457821284</v>
+        <v>0.0016473086288358192</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0057862865820084153</v>
+        <v>0.0057862547189708735</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.16134582824200724</v>
+        <v>0.21824707254292786</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.068106350395210971</v>
+        <v>-0.0743607097021209</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00036017348074736134</v>
+        <v>0.00046393210044152285</v>
       </c>
       <c r="F12" s="0">
-        <v>2.3928002410642268e-05</v>
+        <v>0.0033713506852197624</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>1.2665756102842452e-05</v>
+        <v>0.0018499540961902472</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0019037968420538519</v>
+        <v>0.010048111176310421</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.0042211796449230787</v>
+        <v>-0.0039140679563529068</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.14974674951722172</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.044729532563494628</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.00070713980265761677</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.023112521979410848</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.00066847819657671326</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00045279156224766268</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.00075375185459971639</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>-0.033166316660156431</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.12007002422180604</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.10974063572962031</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.00076699398708670718</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.00049085838117398869</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.00026943691487986551</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.025351863946616818</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>8.3915145250024192e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr8_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.35546053261857952</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.33313180890007021</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.32263214942805019</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.35460969345664362</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.3744211556089701</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.29740531927449676</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.167109175312777</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.1950338412583682</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.39976793288929613</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.37607753792417603</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.21824707254292786</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.14974674951722172</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.12007002422180604</v>
+        <v>0.1575877581367498</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.10974063572962031</v>
+        <v>-0.089309498241499488</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>0.00076699398708670718</v>
+        <v>0.0006404934962838852</v>
       </c>
       <c r="F14" s="0">
-        <v>0.00049085838117398869</v>
+        <v>8.9737107638359067e-05</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.00026943691487986551</v>
+        <v>-0.0012715970652002028</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.025351863946616818</v>
+        <v>-0.00055167869640163503</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>8.3915145250024192e-06</v>
+        <v>0.0024584548987922061</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.45915572413889266</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.080079860790793753</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.00023319304012957241</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.0031728893268263632</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0077497155349127034</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.020697880656217804</v>
       </c>
     </row>
   </sheetData>
